--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H2">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.373217333333334</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N2">
-        <v>4.119652</v>
+        <v>6.484261</v>
       </c>
       <c r="O2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q2">
-        <v>0.4335512610017778</v>
+        <v>1.215820551703333</v>
       </c>
       <c r="R2">
-        <v>3.901961349016</v>
+        <v>10.94238496533</v>
       </c>
       <c r="S2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="T2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H3">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>77.106487</v>
       </c>
       <c r="O3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q3">
-        <v>8.11466955710511</v>
+        <v>14.45772333412333</v>
       </c>
       <c r="R3">
-        <v>73.03202601394599</v>
+        <v>130.11951000711</v>
       </c>
       <c r="S3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="T3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H4">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08316866666666667</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N4">
-        <v>0.249506</v>
+        <v>10.368181</v>
       </c>
       <c r="O4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q4">
-        <v>0.02625795599422222</v>
+        <v>1.944068498103333</v>
       </c>
       <c r="R4">
-        <v>0.236321603948</v>
+        <v>17.49661648293</v>
       </c>
       <c r="S4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="T4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H5">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.234191333333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N5">
-        <v>15.702574</v>
+        <v>0.1215</v>
       </c>
       <c r="O5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q5">
-        <v>1.652535398299111</v>
+        <v>0.022781655</v>
       </c>
       <c r="R5">
-        <v>14.872818584692</v>
+        <v>0.205034895</v>
       </c>
       <c r="S5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="T5">
-        <v>0.1607321642363904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3157193333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.9471579999999999</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1719393333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.515818</v>
-      </c>
-      <c r="O6">
-        <v>0.005279933308519127</v>
-      </c>
-      <c r="P6">
-        <v>0.005279933308519127</v>
-      </c>
-      <c r="Q6">
-        <v>0.05428457169377777</v>
-      </c>
-      <c r="R6">
-        <v>0.488561145244</v>
-      </c>
-      <c r="S6">
-        <v>0.005279933308519127</v>
-      </c>
-      <c r="T6">
-        <v>0.005279933308519127</v>
+        <v>0.001291448192694784</v>
       </c>
     </row>
   </sheetData>
